--- a/data/trans_bre/P17G_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P17G_R2-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-3.058491181116927</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.7946817212666337</v>
+        <v>0.7946817212666327</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.3504967230621933</v>
@@ -649,7 +649,7 @@
         <v>-0.6686393102001694</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4365468727661531</v>
+        <v>0.4365468727661524</v>
       </c>
     </row>
     <row r="5">
@@ -660,26 +660,26 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.601073472558697</v>
+        <v>-4.65585389944627</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.3315263304648612</v>
+        <v>-0.610810658173912</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.409146082107103</v>
+        <v>-6.256338553500457</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.431347114511184</v>
+        <v>-1.614861364054802</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.8128163655469947</v>
+        <v>-0.7876451917548947</v>
       </c>
       <c r="H5" s="6" t="inlineStr"/>
       <c r="I5" s="6" t="n">
-        <v>-0.9247848239149095</v>
+        <v>-0.8942626806437506</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.494229409220433</v>
+        <v>-0.5423612688660044</v>
       </c>
     </row>
     <row r="6">
@@ -690,26 +690,26 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.347365420396495</v>
+        <v>1.459739164666152</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.798340617736139</v>
+        <v>1.788124766735404</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.501386881718521</v>
+        <v>-0.4341889257133922</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.621513583657599</v>
+        <v>2.609619443622772</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7016137022946959</v>
+        <v>0.8262664886539918</v>
       </c>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="n">
-        <v>-0.04594280788202717</v>
+        <v>0.1839395086033727</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3.209970331748478</v>
+        <v>2.871544062226459</v>
       </c>
     </row>
     <row r="7">
@@ -733,7 +733,7 @@
         <v>0.2099408183101042</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.2357853227040249</v>
+        <v>-0.2357853227040251</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.152739702807285</v>
@@ -745,7 +745,7 @@
         <v>0.2100314245398966</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.1499562690879237</v>
+        <v>-0.1499562690879238</v>
       </c>
     </row>
     <row r="8">
@@ -756,28 +756,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.703304871499181</v>
+        <v>-0.6742548436271328</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.150450334441567</v>
+        <v>-2.013847614401208</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.207663696756498</v>
+        <v>-1.147681877273995</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.913608036174673</v>
+        <v>-1.955344458885685</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6228130274343813</v>
+        <v>-0.5057544068121237</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7931100338490905</v>
+        <v>-0.7709583867732094</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.8132479799487088</v>
+        <v>-0.7616419699010673</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.7421841497127515</v>
+        <v>-0.7651912995167942</v>
       </c>
     </row>
     <row r="9">
@@ -788,28 +788,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.625063922924195</v>
+        <v>2.6676522185887</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.339649663825177</v>
+        <v>1.333376417495814</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.453360276101167</v>
+        <v>1.427622191289326</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.164074485944684</v>
+        <v>1.011700040851248</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>8.375523990628118</v>
+        <v>13.42002320930635</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.370663683941268</v>
+        <v>2.675334610364725</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.006254970808892</v>
+        <v>5.298464573527163</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.687713554847343</v>
+        <v>1.378411605106257</v>
       </c>
     </row>
     <row r="10">
@@ -833,7 +833,7 @@
         <v>-0.4983749109648753</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.554190414671985</v>
+        <v>0.5541904146719854</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.2519100854040165</v>
@@ -845,7 +845,7 @@
         <v>-0.2535688962119329</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.4038618333043655</v>
+        <v>0.4038618333043659</v>
       </c>
     </row>
     <row r="11">
@@ -856,26 +856,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.141000977166748</v>
+        <v>-2.179463938535314</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.555183186689935</v>
+        <v>-1.484319219822427</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.433317760891863</v>
+        <v>-2.436900169413389</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.230091788109071</v>
-      </c>
-      <c r="G11" s="6" t="n">
+        <v>-1.395085566444913</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>-0.8329864855569866</v>
+        <v>-0.8308138434851967</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.6193204554199803</v>
+        <v>-0.5987518935633637</v>
       </c>
     </row>
     <row r="12">
@@ -886,24 +886,26 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.134026028204378</v>
+        <v>1.048192647518709</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.66722960069857</v>
+        <v>2.421312603539674</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.469386409735137</v>
+        <v>1.422013317084134</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.031986745448799</v>
+        <v>2.172117418077757</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
-      <c r="H12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>9.814938286628097</v>
+      </c>
       <c r="I12" s="6" t="n">
-        <v>1.714169456463232</v>
+        <v>1.922029437482806</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>4.14782978645053</v>
+        <v>4.002618450038138</v>
       </c>
     </row>
     <row r="13">
@@ -950,26 +952,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.8699520687833078</v>
+        <v>-0.8432109392144612</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.516383796395878</v>
+        <v>-3.842005117465249</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1537818272144859</v>
+        <v>0.3990015854772515</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.153342883590215</v>
-      </c>
-      <c r="G14" s="6" t="inlineStr"/>
+        <v>-2.274348881754424</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.7653837287425744</v>
+      </c>
       <c r="H14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4357159642608848</v>
+        <v>-0.3447709665937882</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6920451033061077</v>
+        <v>-0.7088983764104844</v>
       </c>
     </row>
     <row r="15">
@@ -980,26 +984,26 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.949360929060078</v>
+        <v>1.960154772995405</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3044006890586904</v>
+        <v>0.2149743564829746</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.945852622895575</v>
+        <v>5.388557333997205</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.816978743573987</v>
+        <v>1.694947660527124</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>0.8281157713033598</v>
+        <v>1.018651838341551</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>14.35537969226472</v>
+        <v>16.22688677425173</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.680058204438494</v>
+        <v>1.639652127361021</v>
       </c>
     </row>
     <row r="16">
@@ -1046,26 +1050,24 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.7018082751768567</v>
+        <v>-0.595931052946665</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.51754103811691</v>
+        <v>-1.471643403650652</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.267005521243421</v>
+        <v>-4.007460329864046</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.5435230401980945</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.76025540324445</v>
+      </c>
+      <c r="G17" s="6" t="inlineStr"/>
       <c r="H17" s="6" t="n">
-        <v>-0.7137611934614062</v>
+        <v>-0.7135127430602457</v>
       </c>
       <c r="I17" s="6" t="inlineStr"/>
       <c r="J17" s="6" t="n">
-        <v>-0.7530982780478389</v>
+        <v>-0.758882288729682</v>
       </c>
     </row>
     <row r="18">
@@ -1076,21 +1078,19 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.781067725018475</v>
+        <v>4.528312481037738</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.951806014193811</v>
+        <v>4.079692243736916</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9773303061140057</v>
+        <v>0.9156443804079022</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.872340360107125</v>
+        <v>2.616479820979126</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
-      <c r="H18" s="6" t="n">
-        <v>8.664528098765075</v>
-      </c>
+      <c r="H18" s="6" t="inlineStr"/>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="inlineStr"/>
     </row>
@@ -1115,7 +1115,7 @@
         <v>0.6543477948478836</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.941848025272907</v>
+        <v>0.9418480252729063</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.7562290547212609</v>
@@ -1125,7 +1125,7 @@
         <v>0.8358045873767707</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1.774542736731163</v>
+        <v>1.774542736731161</v>
       </c>
     </row>
     <row r="20">
@@ -1136,20 +1136,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-2.854876411114587</v>
+        <v>-2.789213978609962</v>
       </c>
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="n">
-        <v>-0.9806272454442923</v>
+        <v>-1.198840292660806</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-0.2159037607515681</v>
+        <v>-0.2138523924353427</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
-      <c r="I20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4930765168919428</v>
+        <v>-0.5056505508818981</v>
       </c>
     </row>
     <row r="21">
@@ -1160,20 +1162,20 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.004898498579921961</v>
+        <v>0.2826001687030849</v>
       </c>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>2.49163758795606</v>
+        <v>2.518629456544708</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2.538620476869901</v>
+        <v>2.454330746430637</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>16.56935550175756</v>
+        <v>13.34506247504737</v>
       </c>
     </row>
     <row r="22">
@@ -1220,28 +1222,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.8136599534102414</v>
+        <v>-0.9069756581744656</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.14852214462918</v>
+        <v>-1.109621595418455</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.40716681817548</v>
+        <v>-1.409801258650822</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.406140740236673</v>
+        <v>-1.022314105149022</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.4792658907750126</v>
+        <v>-0.5419611258306658</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.4744462060279019</v>
+        <v>-0.4609539932855077</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.6854962940849401</v>
+        <v>-0.6717626793245433</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.2834850803481373</v>
+        <v>-0.2319292454079077</v>
       </c>
     </row>
     <row r="24">
@@ -1252,28 +1254,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.795313588766522</v>
+        <v>1.881647501628506</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.976143648061383</v>
+        <v>1.940532728404167</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.307856949700811</v>
+        <v>1.345613308234918</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.102326246543556</v>
+        <v>3.143327102335534</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>2.631307743444358</v>
+        <v>2.855643088581344</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.786423788151954</v>
+        <v>1.976860562933779</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>2.110584043972179</v>
+        <v>2.009977837816993</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.310623673774058</v>
+        <v>1.370813447427657</v>
       </c>
     </row>
     <row r="25">
@@ -1297,7 +1299,7 @@
         <v>0.1831601081395549</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.09258291347244048</v>
+        <v>0.09258291347244066</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2070231861062947</v>
@@ -1309,7 +1311,7 @@
         <v>0.07500292758321717</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.07179412524947969</v>
+        <v>0.07179412524947983</v>
       </c>
     </row>
     <row r="26">
@@ -1320,28 +1322,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-1.055274888043224</v>
+        <v>-1.016822910493183</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-1.460321662668094</v>
+        <v>-1.484031541196589</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-1.403898242725164</v>
+        <v>-1.289424466257183</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-1.11997931349153</v>
+        <v>-1.035252129085785</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5047813954903257</v>
+        <v>-0.5008967641225851</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.8333726390539794</v>
+        <v>-0.8248270810949233</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.44886810525935</v>
+        <v>-0.4256315924739902</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5524666144071966</v>
+        <v>-0.5507017514001553</v>
       </c>
     </row>
     <row r="27">
@@ -1352,28 +1354,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.903273951420065</v>
+        <v>1.784912703323151</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5973774815585313</v>
+        <v>0.6032156065549567</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2.094257204701387</v>
+        <v>1.940097627551475</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1.020666039645504</v>
+        <v>1.169425781670287</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.063932920356986</v>
+        <v>2.090029430103067</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.641040910068572</v>
+        <v>1.207082180478663</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.187840861724031</v>
+        <v>1.166735995928947</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.425173374018377</v>
+        <v>1.888165772460707</v>
       </c>
     </row>
     <row r="28">
@@ -1397,7 +1399,7 @@
         <v>0.0369061901695434</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.4734684298905386</v>
+        <v>0.4734684298905389</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1490827385849957</v>
@@ -1409,7 +1411,7 @@
         <v>0.02028607909593055</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.2610566689032258</v>
+        <v>0.261056668903226</v>
       </c>
     </row>
     <row r="29">
@@ -1420,28 +1422,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.4646357294095455</v>
+        <v>-0.3848203739732481</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.6019281386795089</v>
+        <v>-0.5618628698213886</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.6808452095455033</v>
+        <v>-0.6429397907601114</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.2203854984861064</v>
+        <v>-0.1984742052035822</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.2713260475983441</v>
+        <v>-0.2252154699396737</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.3829794393082378</v>
+        <v>-0.3680474390655257</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.3085905359040731</v>
+        <v>-0.3014772734567676</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.1038532542457892</v>
+        <v>-0.08782055508526376</v>
       </c>
     </row>
     <row r="30">
@@ -1452,28 +1454,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.8431822729316172</v>
+        <v>0.8500888539953249</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.5087160294370076</v>
+        <v>0.5530740453791868</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.7407258673577215</v>
+        <v>0.6693208928799785</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.062723178576275</v>
+        <v>1.142040874000611</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.7403889762558946</v>
+        <v>0.7741163243168638</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5138286038318826</v>
+        <v>0.5917937482197816</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5331380442872095</v>
+        <v>0.4485123377964519</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.7444710388670878</v>
+        <v>0.7955137558248253</v>
       </c>
     </row>
     <row r="31">
